--- a/TCC_END/Graficos_End.xlsx
+++ b/TCC_END/Graficos_End.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger\Desktop\TESTES_ENDS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_25CEDDF47E814C84D94F30739F589B91ACC1925A" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Real</t>
   </si>
@@ -68,11 +62,20 @@
   <si>
     <t>Estimado_2 2018</t>
   </si>
+  <si>
+    <t>Produção prevista pela RN - 2018 para</t>
+  </si>
+  <si>
+    <t>Função da ceplac</t>
+  </si>
+  <si>
+    <t>usar desvio padrao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -143,21 +146,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -182,23 +175,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$1</c:f>
+              <c:f>Planilha1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -216,7 +207,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -244,18 +234,12 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -276,7 +260,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:f>Planilha1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -319,7 +303,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB71-4A75-A433-A27D17579FD9}"/>
             </c:ext>
@@ -330,7 +314,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$1</c:f>
+              <c:f>Planilha1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -348,7 +332,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -376,18 +359,12 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -408,7 +385,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$13</c:f>
+              <c:f>Planilha1!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -451,7 +428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB71-4A75-A433-A27D17579FD9}"/>
             </c:ext>
@@ -462,7 +439,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$1</c:f>
+              <c:f>Planilha1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -480,7 +457,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -508,18 +484,12 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -540,7 +510,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$13</c:f>
+              <c:f>Planilha1!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -583,7 +553,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BB71-4A75-A433-A27D17579FD9}"/>
             </c:ext>
@@ -594,7 +564,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$1</c:f>
+              <c:f>Planilha1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -612,7 +582,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -640,18 +609,12 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -672,7 +635,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$2:$D$13</c:f>
+              <c:f>Planilha1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -715,32 +678,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BB71-4A75-A433-A27D17579FD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1214551919"/>
-        <c:axId val="1214555247"/>
+        <c:axId val="70220032"/>
+        <c:axId val="70230016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1214551919"/>
+        <c:axId val="70220032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -757,7 +713,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -789,18 +744,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214555247"/>
+        <c:crossAx val="70230016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214555247"/>
+        <c:axId val="70230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,9 +762,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1214551919"/>
+        <c:crossAx val="70220032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -824,7 +777,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -849,13 +802,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -879,33 +831,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -930,11 +872,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -942,20 +883,19 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6931793525809261E-2"/>
-          <c:y val="0.12679313459801264"/>
-          <c:w val="0.91351265091863521"/>
-          <c:h val="0.69949996087887389"/>
+          <c:y val="0.12679313459801267"/>
+          <c:w val="0.91351265091863509"/>
+          <c:h val="0.69949996087887401"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$1</c:f>
+              <c:f>Planilha1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -990,7 +930,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:f>Planilha1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1033,8 +973,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-27EA-4BF1-9DA7-7826081E6D45}"/>
             </c:ext>
@@ -1045,7 +984,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$1</c:f>
+              <c:f>Planilha1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1080,7 +1019,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$13</c:f>
+              <c:f>Planilha1!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1123,8 +1062,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-27EA-4BF1-9DA7-7826081E6D45}"/>
             </c:ext>
@@ -1135,7 +1073,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$1</c:f>
+              <c:f>Planilha1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1170,7 +1108,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$13</c:f>
+              <c:f>Planilha1!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1213,8 +1151,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-27EA-4BF1-9DA7-7826081E6D45}"/>
             </c:ext>
@@ -1225,7 +1162,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$1</c:f>
+              <c:f>Planilha1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1260,7 +1197,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$2:$D$13</c:f>
+              <c:f>Planilha1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1303,35 +1240,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-27EA-4BF1-9DA7-7826081E6D45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1082725343"/>
-        <c:axId val="1082727007"/>
+        <c:axId val="70290816"/>
+        <c:axId val="70313088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1082725343"/>
+        <c:axId val="70290816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1363,22 +1289,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1082727007"/>
+        <c:crossAx val="70313088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1082727007"/>
+        <c:axId val="70313088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1396,7 +1320,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1422,10 +1345,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1082725343"/>
+        <c:crossAx val="70290816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,7 +1362,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1464,13 +1387,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1494,12 +1416,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2618,13 +2540,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2632,7 +2554,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,13 +2576,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2668,7 +2590,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2767,7 +2689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2944,19 +2866,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2970,432 +2890,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2">
-        <v>2097</v>
-      </c>
-      <c r="C2">
-        <v>1652</v>
-      </c>
-      <c r="D2">
-        <v>1692</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM(-A2,B2)*100/B2</f>
-        <v>3.5765379113018598</v>
-      </c>
-      <c r="F2" s="4">
-        <f>SUM(-C2,A2)*100/A2</f>
-        <v>18.298714144411473</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM(-D2,A2)*100/A2</f>
-        <v>16.320474777448073</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>4270</v>
+        <v>2022</v>
       </c>
       <c r="B3">
-        <v>3753</v>
+        <v>2097</v>
       </c>
       <c r="C3">
-        <v>3523</v>
+        <v>1652</v>
       </c>
       <c r="D3">
-        <v>2778</v>
+        <v>1692</v>
       </c>
       <c r="E3" s="4">
-        <f>SUM(-B3,A3)*100/A3</f>
-        <v>12.107728337236534</v>
+        <f>SUM(-A3,B3)*100/B3</f>
+        <v>3.5765379113018598</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(-C3,A3)*100/A3</f>
-        <v>17.494145199063233</v>
+        <v>18.298714144411473</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(-D3,A3)*100/A3</f>
-        <v>34.941451990632316</v>
+        <v>16.320474777448073</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>11799</v>
+        <v>4270</v>
       </c>
       <c r="B4">
-        <v>10033</v>
+        <v>3753</v>
       </c>
       <c r="C4">
-        <v>11052</v>
+        <v>3523</v>
       </c>
       <c r="D4">
-        <v>7645</v>
+        <v>2778</v>
       </c>
       <c r="E4" s="4">
         <f>SUM(-B4,A4)*100/A4</f>
-        <v>14.967370116111535</v>
+        <v>12.107728337236534</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(-C4,A4)*100/A4</f>
-        <v>6.3310450038138821</v>
+        <v>17.494145199063233</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(-D4,A4)*100/A4</f>
-        <v>35.2063734214764</v>
+        <v>34.941451990632316</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>17699</v>
+        <v>11799</v>
       </c>
       <c r="B5">
-        <v>18347</v>
+        <v>10033</v>
       </c>
       <c r="C5">
-        <v>19600</v>
+        <v>11052</v>
       </c>
       <c r="D5">
-        <v>19040</v>
+        <v>7645</v>
       </c>
       <c r="E5" s="4">
-        <f>SUM(-A5,B5)*100/B5</f>
-        <v>3.5319125742628223</v>
+        <f>SUM(-B5,A5)*100/A5</f>
+        <v>14.967370116111535</v>
       </c>
       <c r="F5" s="4">
-        <f>SUM(-A5,C5)*100/C5</f>
-        <v>9.6989795918367339</v>
+        <f>SUM(-C5,A5)*100/A5</f>
+        <v>6.3310450038138821</v>
       </c>
       <c r="G5" s="4">
-        <f>SUM(-A5,D5)*100/D5</f>
-        <v>7.0430672268907566</v>
+        <f>SUM(-D5,A5)*100/A5</f>
+        <v>35.2063734214764</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22980</v>
+        <v>17699</v>
       </c>
       <c r="B6">
-        <v>21696</v>
+        <v>18347</v>
       </c>
       <c r="C6">
-        <v>23590</v>
+        <v>19600</v>
       </c>
       <c r="D6">
-        <v>22711</v>
+        <v>19040</v>
       </c>
       <c r="E6" s="4">
-        <f>SUM(-B6,A6)*100/A6</f>
-        <v>5.5874673629242819</v>
+        <f>SUM(-A6,B6)*100/B6</f>
+        <v>3.5319125742628223</v>
       </c>
       <c r="F6" s="4">
-        <f>SUM(-A6,C6)*100/C6</f>
-        <v>2.5858414582450191</v>
+        <f t="shared" ref="F6:F13" si="0">SUM(-A6,C6)*100/C6</f>
+        <v>9.6989795918367339</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(-D6,A6)*100/A6</f>
-        <v>1.1705831157528286</v>
+        <f>SUM(-A6,D6)*100/D6</f>
+        <v>7.0430672268907566</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24357</v>
+        <v>22980</v>
       </c>
       <c r="B7">
-        <v>22389</v>
+        <v>21696</v>
       </c>
       <c r="C7">
-        <v>24944</v>
+        <v>23590</v>
       </c>
       <c r="D7">
-        <v>26255</v>
+        <v>22711</v>
       </c>
       <c r="E7" s="4">
         <f>SUM(-B7,A7)*100/A7</f>
-        <v>8.0798127848257177</v>
+        <v>5.5874673629242819</v>
       </c>
       <c r="F7" s="4">
-        <f>SUM(-A7,C7)*100/C7</f>
-        <v>2.3532713277742143</v>
+        <f t="shared" si="0"/>
+        <v>2.5858414582450191</v>
       </c>
       <c r="G7" s="4">
-        <f>SUM(-A7,D7)*100/D7</f>
-        <v>7.2290992191963435</v>
+        <f>SUM(-D7,A7)*100/A7</f>
+        <v>1.1705831157528286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20508</v>
+        <v>24357</v>
       </c>
       <c r="B8">
-        <v>19769</v>
+        <v>22389</v>
       </c>
       <c r="C8">
-        <v>21694</v>
+        <v>24944</v>
       </c>
       <c r="D8">
-        <v>19455</v>
+        <v>26255</v>
       </c>
       <c r="E8" s="4">
         <f>SUM(-B8,A8)*100/A8</f>
-        <v>3.6034718158767309</v>
-      </c>
-      <c r="F8" s="5">
-        <f>SUM(-A8,C8)*100/C8</f>
-        <v>5.4669493869272614</v>
+        <v>8.0798127848257177</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3532713277742143</v>
       </c>
       <c r="G8" s="4">
-        <f>SUM(-D8,A8)*100/A8</f>
-        <v>5.1345816266822704</v>
+        <f>SUM(-A8,D8)*100/D8</f>
+        <v>7.2290992191963435</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18570</v>
+        <v>20508</v>
       </c>
       <c r="B9">
-        <v>18165</v>
+        <v>19769</v>
       </c>
       <c r="C9">
-        <v>19574</v>
+        <v>21694</v>
       </c>
       <c r="D9">
-        <v>17502</v>
+        <v>19455</v>
       </c>
       <c r="E9" s="4">
         <f>SUM(-B9,A9)*100/A9</f>
-        <v>2.1809369951534734</v>
+        <v>3.6034718158767309</v>
       </c>
       <c r="F9" s="5">
-        <f>SUM(-A9,C9)*100/C9</f>
-        <v>5.1292530908347809</v>
+        <f t="shared" si="0"/>
+        <v>5.4669493869272614</v>
       </c>
       <c r="G9" s="4">
         <f>SUM(-D9,A9)*100/A9</f>
-        <v>5.7512116316639741</v>
+        <v>5.1345816266822704</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>12642</v>
+        <v>18570</v>
       </c>
       <c r="B10">
-        <v>13231</v>
+        <v>18165</v>
       </c>
       <c r="C10">
-        <v>14143</v>
+        <v>19574</v>
       </c>
       <c r="D10">
-        <v>13163</v>
+        <v>17502</v>
       </c>
       <c r="E10" s="4">
-        <f>SUM(-A10,B10)*100/B10</f>
-        <v>4.4516665406998719</v>
+        <f>SUM(-B10,A10)*100/A10</f>
+        <v>2.1809369951534734</v>
       </c>
       <c r="F10" s="5">
-        <f>SUM(-A10,C10)*100/C10</f>
-        <v>10.613024110867567</v>
+        <f t="shared" si="0"/>
+        <v>5.1292530908347809</v>
       </c>
       <c r="G10" s="4">
-        <f>SUM(-A11,C11)*100/C11</f>
-        <v>12.855980471928397</v>
+        <f>SUM(-D10,A10)*100/A10</f>
+        <v>5.7512116316639741</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8568</v>
+        <v>12642</v>
       </c>
       <c r="B11">
-        <v>8711</v>
+        <v>13231</v>
       </c>
       <c r="C11">
-        <v>9832</v>
+        <v>14143</v>
       </c>
       <c r="D11">
-        <v>8561</v>
+        <v>13163</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(-A11,B11)*100/B11</f>
-        <v>1.6416025714613707</v>
+        <v>4.4516665406998719</v>
       </c>
       <c r="F11" s="5">
-        <f>SUM(-A11,C11)*100/C11</f>
+        <f t="shared" si="0"/>
+        <v>10.613024110867567</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM(-A12,C12)*100/C12</f>
         <v>12.855980471928397</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM(-D11,A11)*100/A11</f>
-        <v>8.1699346405228759E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>4326</v>
+        <v>8568</v>
       </c>
       <c r="B12">
-        <v>4460</v>
+        <v>8711</v>
       </c>
       <c r="C12">
-        <v>4825</v>
+        <v>9832</v>
       </c>
       <c r="D12">
-        <v>4049</v>
+        <v>8561</v>
       </c>
       <c r="E12" s="4">
         <f>SUM(-A12,B12)*100/B12</f>
-        <v>3.0044843049327352</v>
+        <v>1.6416025714613707</v>
       </c>
       <c r="F12" s="5">
-        <f>SUM(-A12,C12)*100/C12</f>
-        <v>10.341968911917098</v>
-      </c>
-      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>12.855980471928397</v>
+      </c>
+      <c r="G12" s="4">
         <f>SUM(-D12,A12)*100/A12</f>
-        <v>6.4031437817845589</v>
+        <v>8.1699346405228759E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3483</v>
+        <v>4326</v>
       </c>
       <c r="B13">
-        <v>3678</v>
+        <v>4460</v>
       </c>
       <c r="C13">
-        <v>3303</v>
+        <v>4825</v>
       </c>
       <c r="D13">
-        <v>2632</v>
+        <v>4049</v>
       </c>
       <c r="E13" s="4">
         <f>SUM(-A13,B13)*100/B13</f>
-        <v>5.3017944535073411</v>
+        <v>3.0044843049327352</v>
       </c>
       <c r="F13" s="5">
-        <f>SUM(-C13,A13)*100/A13</f>
-        <v>5.1679586563307494</v>
+        <f t="shared" si="0"/>
+        <v>10.341968911917098</v>
       </c>
       <c r="G13" s="5">
         <f>SUM(-D13,A13)*100/A13</f>
-        <v>24.432960091874822</v>
+        <v>6.4031437817845589</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14">
+        <v>3483</v>
+      </c>
+      <c r="B14">
+        <v>3678</v>
+      </c>
+      <c r="C14">
+        <v>3303</v>
+      </c>
+      <c r="D14">
+        <v>2632</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM(-A14,B14)*100/B14</f>
+        <v>5.3017944535073411</v>
+      </c>
+      <c r="F14" s="5">
+        <f>SUM(-C14,A14)*100/A14</f>
+        <v>5.1679586563307494</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(-D14,A14)*100/A14</f>
+        <v>24.432960091874822</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17">
-        <f>SUM(A2:A13)</f>
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <f>SUM(A3:A14)</f>
         <v>151224</v>
       </c>
-      <c r="B17">
-        <f>SUM(B2:B13)</f>
+      <c r="B18">
+        <f>SUM(B3:B14)</f>
         <v>146329</v>
       </c>
-      <c r="C17">
-        <f>SUM(C2:C13)</f>
+      <c r="C18">
+        <f>SUM(C3:C14)</f>
         <v>157732</v>
       </c>
-      <c r="D17">
-        <f>SUM(D2:D13)</f>
+      <c r="D18">
+        <f>SUM(D3:D14)</f>
         <v>145483</v>
       </c>
-      <c r="E17" s="3">
-        <f>MEDIAN(E2:E13)</f>
+      <c r="E18" s="3">
+        <f>MEDIAN(E3:E14)</f>
         <v>4.0275691782883012</v>
       </c>
-      <c r="F17" s="3">
-        <f>MEDIAN(F2:F13)</f>
+      <c r="F18" s="3">
+        <f>MEDIAN(F3:F14)</f>
         <v>8.015012297825308</v>
       </c>
-      <c r="G17" s="4">
-        <f>MEDIAN(G2:G13)</f>
+      <c r="G18" s="4">
+        <f>MEDIAN(G3:G14)</f>
         <v>7.13608322304355</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>151224</v>
+      <c r="E19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>150787</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>151224</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>150787</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>142979</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="E28" s="2"/>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="F29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
